--- a/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_Electric-Steam-boiler_for_Spine_RECOVERED.xlsx
+++ b/spine_projects/01_input_data/01_input_raw/basic_input_calculations/Factor_Electric-Steam-boiler_for_Spine_RECOVERED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\basic_input_calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80F61D0D-C4AD-4E04-8D2B-62A94ACC69AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F1FEA9-F1E9-4673-9A5E-3CAF602B3E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{F4700519-8442-4306-8EDE-89F8BDC8EB46}"/>
+    <workbookView xWindow="-4590" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{F4700519-8442-4306-8EDE-89F8BDC8EB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Steam_input_distillation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Factors_CO2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -920,7 +919,7 @@
   <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -969,8 +968,8 @@
         <v>38</v>
       </c>
       <c r="F2">
-        <f>A2*F1</f>
-        <v>277.69499999999999</v>
+        <f>A2/F1</f>
+        <v>283.33333333333331</v>
       </c>
       <c r="X2" t="s">
         <v>54</v>
@@ -998,7 +997,11 @@
       </c>
       <c r="F3">
         <f>1/F2</f>
-        <v>3.6010731197896975E-3</v>
+        <v>3.5294117647058825E-3</v>
+      </c>
+      <c r="H3">
+        <f>F1/A2</f>
+        <v>3.5294117647058825E-3</v>
       </c>
       <c r="R3" t="s">
         <v>44</v>
@@ -1031,7 +1034,8 @@
         <v>41</v>
       </c>
       <c r="R4">
-        <v>4.57</v>
+        <f>A12</f>
+        <v>5.1734967222388608</v>
       </c>
       <c r="S4">
         <f>AA2</f>
@@ -1100,6 +1104,12 @@
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="O13" s="1"/>
     </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f>AA4/A11</f>
+        <v>5.1734967222388617</v>
+      </c>
+    </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N15" t="s">
         <v>64</v>
@@ -1114,8 +1124,8 @@
         <v>65</v>
       </c>
       <c r="O16">
-        <f>O15/0.99</f>
-        <v>3.601073119789697E-3</v>
+        <f>O15*0.99</f>
+        <v>3.529411764705882E-3</v>
       </c>
     </row>
   </sheetData>
